--- a/muscleLab/test.xlsx
+++ b/muscleLab/test.xlsx
@@ -5,15 +5,16 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\repo\stackJimmy\muscleLab\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Repo\GitHub\stackJimmy\muscleLab\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21510" windowHeight="7650" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21510" windowHeight="7650" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="96">
   <si>
     <t>Adductor brevis</t>
   </si>
@@ -676,8 +677,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:B54"/>
   <sheetViews>
-    <sheetView topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:B50"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1075,8 +1076,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G53"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G41" sqref="G41"/>
+    <sheetView zoomScale="73" zoomScaleNormal="73" workbookViewId="0">
+      <selection activeCell="A4" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1172,6 +1173,9 @@
       <c r="B5" t="s">
         <v>54</v>
       </c>
+      <c r="C5">
+        <v>1.9650000000000001</v>
+      </c>
       <c r="D5">
         <v>17.72</v>
       </c>
@@ -1189,6 +1193,9 @@
       <c r="B6" t="s">
         <v>55</v>
       </c>
+      <c r="C6">
+        <v>1.9650000000000001</v>
+      </c>
       <c r="D6">
         <v>15.62</v>
       </c>
@@ -1206,6 +1213,9 @@
       <c r="B7" t="s">
         <v>56</v>
       </c>
+      <c r="C7">
+        <v>1.9650000000000001</v>
+      </c>
       <c r="D7">
         <v>13.77</v>
       </c>
@@ -1223,6 +1233,9 @@
       <c r="B8" t="s">
         <v>57</v>
       </c>
+      <c r="C8">
+        <v>1.9650000000000001</v>
+      </c>
       <c r="D8">
         <v>10.56</v>
       </c>
@@ -2143,6 +2156,721 @@
       </c>
       <c r="C53">
         <v>0.33</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E41"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:E41"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="17" customWidth="1"/>
+    <col min="2" max="2" width="16.42578125" customWidth="1"/>
+    <col min="3" max="4" width="25.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B1" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B2">
+        <v>1.47</v>
+      </c>
+      <c r="C2">
+        <v>10.31</v>
+      </c>
+      <c r="D2">
+        <v>6.1</v>
+      </c>
+      <c r="E2" s="1">
+        <v>3.6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B3">
+        <v>2.2599999999999998</v>
+      </c>
+      <c r="C3">
+        <v>10.82</v>
+      </c>
+      <c r="D3">
+        <v>7.1</v>
+      </c>
+      <c r="E3" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>54</v>
+      </c>
+      <c r="B4">
+        <v>1.9650000000000001</v>
+      </c>
+      <c r="C4">
+        <v>17.72</v>
+      </c>
+      <c r="D4">
+        <v>13.8</v>
+      </c>
+      <c r="E4" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>55</v>
+      </c>
+      <c r="B5">
+        <v>1.9650000000000001</v>
+      </c>
+      <c r="C5">
+        <v>15.62</v>
+      </c>
+      <c r="D5">
+        <v>11.9</v>
+      </c>
+      <c r="E5" s="1">
+        <v>22.1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>56</v>
+      </c>
+      <c r="B6">
+        <v>1.9650000000000001</v>
+      </c>
+      <c r="C6">
+        <v>13.77</v>
+      </c>
+      <c r="D6">
+        <v>14.7</v>
+      </c>
+      <c r="E6" s="1">
+        <v>4.8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>57</v>
+      </c>
+      <c r="B7">
+        <v>1.9650000000000001</v>
+      </c>
+      <c r="C7">
+        <v>10.56</v>
+      </c>
+      <c r="D7">
+        <v>22.2</v>
+      </c>
+      <c r="E7" s="1">
+        <v>4.3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>58</v>
+      </c>
+      <c r="B8">
+        <v>2.92</v>
+      </c>
+      <c r="C8">
+        <v>9.76</v>
+      </c>
+      <c r="D8">
+        <v>11.6</v>
+      </c>
+      <c r="E8" s="1">
+        <v>32.200000000000003</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>59</v>
+      </c>
+      <c r="B9">
+        <v>1.4</v>
+      </c>
+      <c r="C9">
+        <v>11.03</v>
+      </c>
+      <c r="D9">
+        <v>12.3</v>
+      </c>
+      <c r="E9" s="1">
+        <v>10.4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>60</v>
+      </c>
+      <c r="B10">
+        <v>0.79718651070173863</v>
+      </c>
+      <c r="C10">
+        <v>6.93</v>
+      </c>
+      <c r="D10">
+        <v>10.8</v>
+      </c>
+      <c r="E10" s="1">
+        <v>36.700000000000003</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>61</v>
+      </c>
+      <c r="B11">
+        <v>0.40758408065953555</v>
+      </c>
+      <c r="C11">
+        <v>7.48</v>
+      </c>
+      <c r="D11">
+        <v>9.4</v>
+      </c>
+      <c r="E11" s="1">
+        <v>33.200000000000003</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>62</v>
+      </c>
+      <c r="B12">
+        <v>0.43</v>
+      </c>
+      <c r="C12">
+        <v>4.46</v>
+      </c>
+      <c r="D12">
+        <v>13.6</v>
+      </c>
+      <c r="E12" s="1">
+        <v>37.799999999999997</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>63</v>
+      </c>
+      <c r="B13">
+        <v>1.0900000000000001</v>
+      </c>
+      <c r="C13">
+        <v>5.27</v>
+      </c>
+      <c r="D13">
+        <v>16.899999999999999</v>
+      </c>
+      <c r="E13" s="1">
+        <v>35.6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>64</v>
+      </c>
+      <c r="B14">
+        <v>2.11</v>
+      </c>
+      <c r="C14">
+        <v>5.88</v>
+      </c>
+      <c r="D14">
+        <v>12</v>
+      </c>
+      <c r="E14" s="1">
+        <v>38.200000000000003</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>65</v>
+      </c>
+      <c r="B15">
+        <v>3.62</v>
+      </c>
+      <c r="C15">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="D15">
+        <v>9.9</v>
+      </c>
+      <c r="E15" s="1">
+        <v>40.1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>66</v>
+      </c>
+      <c r="B16">
+        <v>3.2947610053740632</v>
+      </c>
+      <c r="C16">
+        <v>14.7</v>
+      </c>
+      <c r="D16">
+        <v>21.1</v>
+      </c>
+      <c r="E16" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>67</v>
+      </c>
+      <c r="B17">
+        <v>5.0292933249252849</v>
+      </c>
+      <c r="C17">
+        <v>15.7</v>
+      </c>
+      <c r="D17">
+        <v>21.9</v>
+      </c>
+      <c r="E17" s="1">
+        <v>7.3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>68</v>
+      </c>
+      <c r="B18">
+        <v>3.6059456697006507</v>
+      </c>
+      <c r="C18">
+        <v>16.7</v>
+      </c>
+      <c r="D18">
+        <v>22.8</v>
+      </c>
+      <c r="E18" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>69</v>
+      </c>
+      <c r="B19">
+        <v>1.8186006546644846</v>
+      </c>
+      <c r="C19">
+        <v>7.3</v>
+      </c>
+      <c r="D19">
+        <v>20.5</v>
+      </c>
+      <c r="E19" s="1">
+        <v>5.7</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>70</v>
+      </c>
+      <c r="B20">
+        <v>1.2724631751227495</v>
+      </c>
+      <c r="C20">
+        <v>7.3</v>
+      </c>
+      <c r="D20">
+        <v>20.5</v>
+      </c>
+      <c r="E20" s="1">
+        <v>6.6</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>71</v>
+      </c>
+      <c r="B21">
+        <v>1.4489361702127661</v>
+      </c>
+      <c r="C21">
+        <v>7.3</v>
+      </c>
+      <c r="D21">
+        <v>20.5</v>
+      </c>
+      <c r="E21" s="1">
+        <v>4.5999999999999996</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>72</v>
+      </c>
+      <c r="B22">
+        <v>0.57947826086956511</v>
+      </c>
+      <c r="C22">
+        <v>6.8</v>
+      </c>
+      <c r="D22">
+        <v>10</v>
+      </c>
+      <c r="E22" s="1">
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>73</v>
+      </c>
+      <c r="B23">
+        <v>0.50372946859903378</v>
+      </c>
+      <c r="C23">
+        <v>5.6</v>
+      </c>
+      <c r="D23">
+        <v>0</v>
+      </c>
+      <c r="E23" s="1">
+        <v>2.6</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>74</v>
+      </c>
+      <c r="B24">
+        <v>0.38679227053140092</v>
+      </c>
+      <c r="C24">
+        <v>3.8</v>
+      </c>
+      <c r="D24">
+        <v>1</v>
+      </c>
+      <c r="E24" s="1">
+        <v>5.0999999999999996</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>75</v>
+      </c>
+      <c r="B25">
+        <v>1.46</v>
+      </c>
+      <c r="C25">
+        <v>22.78</v>
+      </c>
+      <c r="D25">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="E25" s="1">
+        <v>16.899999999999999</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>76</v>
+      </c>
+      <c r="B26">
+        <v>2.48</v>
+      </c>
+      <c r="C26">
+        <v>10.66</v>
+      </c>
+      <c r="D26">
+        <v>14.3</v>
+      </c>
+      <c r="E26" s="1">
+        <v>9.4</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>77</v>
+      </c>
+      <c r="B27">
+        <v>0.53910143272425248</v>
+      </c>
+      <c r="C27">
+        <v>4.54</v>
+      </c>
+      <c r="D27">
+        <v>11.5</v>
+      </c>
+      <c r="E27" s="1">
+        <v>14.8</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>78</v>
+      </c>
+      <c r="B28">
+        <v>1.2908985672757476</v>
+      </c>
+      <c r="C28">
+        <v>5.08</v>
+      </c>
+      <c r="D28">
+        <v>14.1</v>
+      </c>
+      <c r="E28" s="1">
+        <v>33.299999999999997</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>79</v>
+      </c>
+      <c r="B29">
+        <v>0.61</v>
+      </c>
+      <c r="C29">
+        <v>2.6</v>
+      </c>
+      <c r="D29">
+        <v>10</v>
+      </c>
+      <c r="E29" s="1">
+        <v>11.5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>80</v>
+      </c>
+      <c r="B30">
+        <v>3.8</v>
+      </c>
+      <c r="C30">
+        <v>11.69</v>
+      </c>
+      <c r="D30">
+        <v>10.7</v>
+      </c>
+      <c r="E30" s="1">
+        <v>9.6999999999999993</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>81</v>
+      </c>
+      <c r="B31">
+        <v>3.79</v>
+      </c>
+      <c r="C31">
+        <v>7.59</v>
+      </c>
+      <c r="D31">
+        <v>13.9</v>
+      </c>
+      <c r="E31" s="5">
+        <v>34.6</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>82</v>
+      </c>
+      <c r="B32">
+        <v>2.29</v>
+      </c>
+      <c r="C32">
+        <v>40.299999999999997</v>
+      </c>
+      <c r="D32">
+        <v>1.3</v>
+      </c>
+      <c r="E32" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>83</v>
+      </c>
+      <c r="B33">
+        <v>3.46</v>
+      </c>
+      <c r="C33">
+        <v>6.9</v>
+      </c>
+      <c r="D33">
+        <v>15.1</v>
+      </c>
+      <c r="E33" s="1">
+        <v>37.799999999999997</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>84</v>
+      </c>
+      <c r="B34">
+        <v>2.6</v>
+      </c>
+      <c r="C34">
+        <v>19.3</v>
+      </c>
+      <c r="D34">
+        <v>12.9</v>
+      </c>
+      <c r="E34" s="1">
+        <v>24.5</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>85</v>
+      </c>
+      <c r="B35">
+        <v>6.21</v>
+      </c>
+      <c r="C35">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="D35">
+        <v>28.3</v>
+      </c>
+      <c r="E35" s="1">
+        <v>28.2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>86</v>
+      </c>
+      <c r="B36">
+        <v>0.89</v>
+      </c>
+      <c r="C36">
+        <v>9.5</v>
+      </c>
+      <c r="D36">
+        <v>3</v>
+      </c>
+      <c r="E36" s="1">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>87</v>
+      </c>
+      <c r="B37">
+        <v>1.91</v>
+      </c>
+      <c r="C37">
+        <v>6.83</v>
+      </c>
+      <c r="D37">
+        <v>9.6</v>
+      </c>
+      <c r="E37" s="1">
+        <v>24.1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>88</v>
+      </c>
+      <c r="B38">
+        <v>1.49</v>
+      </c>
+      <c r="C38">
+        <v>3.78</v>
+      </c>
+      <c r="D38">
+        <v>13.7</v>
+      </c>
+      <c r="E38" s="1">
+        <v>28.2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>89</v>
+      </c>
+      <c r="B39">
+        <v>3.84</v>
+      </c>
+      <c r="C39">
+        <v>9.93</v>
+      </c>
+      <c r="D39">
+        <v>4.5</v>
+      </c>
+      <c r="E39" s="5">
+        <v>10.6</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>90</v>
+      </c>
+      <c r="B40">
+        <v>11.66</v>
+      </c>
+      <c r="C40">
+        <v>9.94</v>
+      </c>
+      <c r="D40">
+        <v>18.399999999999999</v>
+      </c>
+      <c r="E40" s="5">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>91</v>
+      </c>
+      <c r="B41">
+        <v>6.06</v>
+      </c>
+      <c r="C41">
+        <v>9.68</v>
+      </c>
+      <c r="D41">
+        <v>29.6</v>
+      </c>
+      <c r="E41" s="5">
+        <v>11.2</v>
       </c>
     </row>
   </sheetData>
